--- a/forms/contact/ward-create.xlsx
+++ b/forms/contact/ward-create.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="378">
   <si>
     <t>type</t>
   </si>
@@ -1051,7 +1051,10 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>${contact_name}'s Health Facility</t>
+    <t>county</t>
+  </si>
+  <si>
+    <t>${contact_name}'s County</t>
   </si>
   <si>
     <t>${contact_name} का ज़िला</t>
@@ -1069,7 +1072,22 @@
     <t>District de ${contact_name}</t>
   </si>
   <si>
-    <t>${contact_name}'s Area</t>
+    <t>sub_county</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Sub County</t>
+  </si>
+  <si>
+    <t>ward</t>
+  </si>
+  <si>
+    <t>${contact_name}'s Ward</t>
+  </si>
+  <si>
+    <t>community_health_area</t>
+  </si>
+  <si>
+    <t>${contact_name}'s community health area</t>
   </si>
   <si>
     <t>${contact_name} का स्वास्थ्य केंद्र</t>
@@ -1085,6 +1103,9 @@
   </si>
   <si>
     <t>Centre de santé de ${contact_name}</t>
+  </si>
+  <si>
+    <t>household</t>
   </si>
   <si>
     <t>${contact_name}'s Household</t>
@@ -1141,11 +1162,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,12 +1190,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="DejaVu Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Droid Sans Mono"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1186,14 +1211,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1212,65 +1229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -1278,23 +1236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1302,7 +1245,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1319,7 +1262,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1400,25 +1433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,7 +1469,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,13 +1499,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,13 +1547,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,7 +1559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,19 +1577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,7 +1589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,49 +1601,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1597,17 +1630,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,40 +1684,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1680,150 +1713,150 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1842,6 +1875,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2081,19 +2120,19 @@
   <sheetPr/>
   <dimension ref="A1:AR70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="$A19:$XFD19"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.437037037037" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="22.7111111111111" customWidth="1"/>
-    <col min="3" max="3" width="47.8592592592593" customWidth="1"/>
+    <col min="3" max="3" width="61.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="33.4296296296296" customWidth="1"/>
     <col min="5" max="5" width="27.4296296296296" customWidth="1"/>
     <col min="6" max="6" width="37.2888888888889" customWidth="1"/>
@@ -2131,19 +2170,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2176,19 +2215,19 @@
       <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="23" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -2199,3930 +2238,3930 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24" t="b">
+      <c r="C2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="24"/>
-      <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
     </row>
     <row r="3" spans="1:44">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
+      <c r="C3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24" t="s">
+      <c r="C4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24" t="s">
+      <c r="C5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="26"/>
+      <c r="AK5" s="26"/>
+      <c r="AL5" s="26"/>
+      <c r="AM5" s="26"/>
+      <c r="AN5" s="26"/>
+      <c r="AO5" s="26"/>
+      <c r="AP5" s="26"/>
+      <c r="AQ5" s="26"/>
+      <c r="AR5" s="26"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24" t="s">
+      <c r="C6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26"/>
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="26"/>
+      <c r="AM7" s="26"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="26"/>
+      <c r="AP7" s="26"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="26"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="26"/>
+      <c r="AM8" s="26"/>
+      <c r="AN8" s="26"/>
+      <c r="AO8" s="26"/>
+      <c r="AP8" s="26"/>
+      <c r="AQ8" s="26"/>
+      <c r="AR8" s="26"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="4:24">
-      <c r="D9" s="25"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="27"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="29"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="29"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27" t="s">
+      <c r="C10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AM10" s="27"/>
-      <c r="AN10" s="27"/>
-      <c r="AO10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="27"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="29"/>
+      <c r="AM10" s="29"/>
+      <c r="AN10" s="29"/>
+      <c r="AO10" s="29"/>
+      <c r="AP10" s="29"/>
+      <c r="AQ10" s="29"/>
+      <c r="AR10" s="29"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:44">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27" t="s">
+      <c r="H11" s="29"/>
+      <c r="I11" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27" t="s">
+      <c r="K11" s="29"/>
+      <c r="L11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="27"/>
-      <c r="AE11" s="27"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="27"/>
-      <c r="AH11" s="27"/>
-      <c r="AI11" s="27"/>
-      <c r="AJ11" s="27"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="27"/>
-      <c r="AM11" s="27"/>
-      <c r="AN11" s="27"/>
-      <c r="AO11" s="27"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="27"/>
-      <c r="AR11" s="27"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="29"/>
+      <c r="AB11" s="29"/>
+      <c r="AC11" s="29"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="29"/>
+      <c r="AM11" s="29"/>
+      <c r="AN11" s="29"/>
+      <c r="AO11" s="29"/>
+      <c r="AP11" s="29"/>
+      <c r="AQ11" s="29"/>
+      <c r="AR11" s="29"/>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:44">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27" t="s">
+      <c r="H12" s="29"/>
+      <c r="I12" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
-      <c r="AA12" s="27"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="27"/>
-      <c r="AE12" s="27"/>
-      <c r="AF12" s="27"/>
-      <c r="AG12" s="27"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="27"/>
-      <c r="AM12" s="27"/>
-      <c r="AN12" s="27"/>
-      <c r="AO12" s="27"/>
-      <c r="AP12" s="27"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="27"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="29"/>
+      <c r="AI12" s="29"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="29"/>
+      <c r="AM12" s="29"/>
+      <c r="AN12" s="29"/>
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27" t="s">
+      <c r="C13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="27"/>
-      <c r="Y14" s="27"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="27"/>
-      <c r="AE14" s="27"/>
-      <c r="AF14" s="27"/>
-      <c r="AG14" s="27"/>
-      <c r="AH14" s="27"/>
-      <c r="AI14" s="27"/>
-      <c r="AJ14" s="27"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="27"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="27"/>
-      <c r="AO14" s="27"/>
-      <c r="AP14" s="27"/>
-      <c r="AQ14" s="27"/>
-      <c r="AR14" s="27"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+      <c r="AI14" s="29"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27" t="s">
+      <c r="C15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27" t="s">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="27"/>
-      <c r="AI15" s="27"/>
-      <c r="AJ15" s="27"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="27"/>
-      <c r="AM15" s="27"/>
-      <c r="AN15" s="27"/>
-      <c r="AO15" s="27"/>
-      <c r="AP15" s="27"/>
-      <c r="AQ15" s="27"/>
-      <c r="AR15" s="27"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+      <c r="AI15" s="29"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="29"/>
+      <c r="AM15" s="29"/>
+      <c r="AN15" s="29"/>
+      <c r="AO15" s="29"/>
+      <c r="AP15" s="29"/>
+      <c r="AQ15" s="29"/>
+      <c r="AR15" s="29"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="27"/>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27"/>
-      <c r="AO16" s="27"/>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+      <c r="AI16" s="29"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="29"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="29"/>
+      <c r="AO16" s="29"/>
+      <c r="AP16" s="29"/>
+      <c r="AQ16" s="29"/>
+      <c r="AR16" s="29"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27" t="s">
+      <c r="H17" s="29"/>
+      <c r="I17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27" t="s">
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="28" t="s">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="29"/>
+      <c r="AM18" s="29"/>
+      <c r="AN18" s="29"/>
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="28" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="29"/>
+      <c r="AM19" s="29"/>
+      <c r="AN19" s="29"/>
+      <c r="AO19" s="29"/>
+      <c r="AP19" s="29"/>
+      <c r="AQ19" s="29"/>
+      <c r="AR19" s="29"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27" t="s">
+      <c r="C20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
-      <c r="Y20" s="28" t="s">
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27"/>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="27"/>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="27"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27"/>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27"/>
-      <c r="AO20" s="27"/>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="27"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+      <c r="AI20" s="29"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="29"/>
+      <c r="AM20" s="29"/>
+      <c r="AN20" s="29"/>
+      <c r="AO20" s="29"/>
+      <c r="AP20" s="29"/>
+      <c r="AQ20" s="29"/>
+      <c r="AR20" s="29"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="28" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27"/>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27"/>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27"/>
-      <c r="AD21" s="27"/>
-      <c r="AE21" s="27"/>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27"/>
-      <c r="AI21" s="27"/>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27"/>
-      <c r="AM21" s="27"/>
-      <c r="AN21" s="27"/>
-      <c r="AO21" s="27"/>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+      <c r="AI21" s="29"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="29"/>
+      <c r="AM21" s="29"/>
+      <c r="AN21" s="29"/>
+      <c r="AO21" s="29"/>
+      <c r="AP21" s="29"/>
+      <c r="AQ21" s="29"/>
+      <c r="AR21" s="29"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="27"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="27"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="27"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="27"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="27"/>
-      <c r="AL22" s="27"/>
-      <c r="AM22" s="27"/>
-      <c r="AN22" s="27"/>
-      <c r="AO22" s="27"/>
-      <c r="AP22" s="27"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
+      <c r="AM22" s="29"/>
+      <c r="AN22" s="29"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="29"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="4:24">
-      <c r="D23" s="25"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="27"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="29"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="29"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27" t="s">
+      <c r="H24" s="29"/>
+      <c r="I24" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27" t="s">
+      <c r="J24" s="29"/>
+      <c r="K24" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="27"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="29"/>
+      <c r="AM24" s="29"/>
+      <c r="AN24" s="29"/>
+      <c r="AO24" s="29"/>
+      <c r="AP24" s="29"/>
+      <c r="AQ24" s="29"/>
+      <c r="AR24" s="29"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27" t="s">
+      <c r="C25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="29"/>
+      <c r="AM25" s="29"/>
+      <c r="AN25" s="29"/>
+      <c r="AO25" s="29"/>
+      <c r="AP25" s="29"/>
+      <c r="AQ25" s="29"/>
+      <c r="AR25" s="29"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
-      <c r="X26" s="27"/>
-      <c r="Y26" s="27" t="s">
+      <c r="C26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="Z26" s="27"/>
-      <c r="AA26" s="27"/>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="27"/>
-      <c r="AD26" s="27"/>
-      <c r="AE26" s="27"/>
-      <c r="AF26" s="27"/>
-      <c r="AG26" s="27"/>
-      <c r="AH26" s="27"/>
-      <c r="AI26" s="27"/>
-      <c r="AJ26" s="27"/>
-      <c r="AK26" s="27"/>
-      <c r="AL26" s="27"/>
-      <c r="AM26" s="27"/>
-      <c r="AN26" s="27"/>
-      <c r="AO26" s="27"/>
-      <c r="AP26" s="27"/>
-      <c r="AQ26" s="27"/>
-      <c r="AR26" s="27"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="29"/>
+      <c r="AM26" s="29"/>
+      <c r="AN26" s="29"/>
+      <c r="AO26" s="29"/>
+      <c r="AP26" s="29"/>
+      <c r="AQ26" s="29"/>
+      <c r="AR26" s="29"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27" t="s">
+      <c r="H27" s="29"/>
+      <c r="I27" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
-      <c r="X27" s="27"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="27"/>
-      <c r="AA27" s="27"/>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="27"/>
-      <c r="AD27" s="27"/>
-      <c r="AE27" s="27"/>
-      <c r="AF27" s="27"/>
-      <c r="AG27" s="27"/>
-      <c r="AH27" s="27"/>
-      <c r="AI27" s="27"/>
-      <c r="AJ27" s="27"/>
-      <c r="AK27" s="27"/>
-      <c r="AL27" s="27"/>
-      <c r="AM27" s="27"/>
-      <c r="AN27" s="27"/>
-      <c r="AO27" s="27"/>
-      <c r="AP27" s="27"/>
-      <c r="AQ27" s="27"/>
-      <c r="AR27" s="27"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+      <c r="AI27" s="29"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="29"/>
+      <c r="AM27" s="29"/>
+      <c r="AN27" s="29"/>
+      <c r="AO27" s="29"/>
+      <c r="AP27" s="29"/>
+      <c r="AQ27" s="29"/>
+      <c r="AR27" s="29"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27" t="s">
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="35" t="s">
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
-      <c r="AQ28" s="27"/>
-      <c r="AR28" s="27"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+      <c r="AI28" s="29"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="29"/>
+      <c r="AM28" s="29"/>
+      <c r="AN28" s="29"/>
+      <c r="AO28" s="29"/>
+      <c r="AP28" s="29"/>
+      <c r="AQ28" s="29"/>
+      <c r="AR28" s="29"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="27"/>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="27"/>
-      <c r="AQ29" s="27"/>
-      <c r="AR29" s="27"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+      <c r="AI29" s="29"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="29"/>
+      <c r="AM29" s="29"/>
+      <c r="AN29" s="29"/>
+      <c r="AO29" s="29"/>
+      <c r="AP29" s="29"/>
+      <c r="AQ29" s="29"/>
+      <c r="AR29" s="29"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+      <c r="AI30" s="29"/>
+      <c r="AJ30" s="29"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="29"/>
+      <c r="AM30" s="29"/>
+      <c r="AN30" s="29"/>
+      <c r="AO30" s="29"/>
+      <c r="AP30" s="29"/>
+      <c r="AQ30" s="29"/>
+      <c r="AR30" s="29"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="27"/>
-      <c r="AI31" s="27"/>
-      <c r="AJ31" s="27"/>
-      <c r="AK31" s="27"/>
-      <c r="AL31" s="27"/>
-      <c r="AM31" s="27"/>
-      <c r="AN31" s="27"/>
-      <c r="AO31" s="27"/>
-      <c r="AP31" s="27"/>
-      <c r="AQ31" s="27"/>
-      <c r="AR31" s="27"/>
+      <c r="C31" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+      <c r="AI31" s="29"/>
+      <c r="AJ31" s="29"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="29"/>
+      <c r="AM31" s="29"/>
+      <c r="AN31" s="29"/>
+      <c r="AO31" s="29"/>
+      <c r="AP31" s="29"/>
+      <c r="AQ31" s="29"/>
+      <c r="AR31" s="29"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27" t="s">
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27" t="s">
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
-      <c r="X32" s="27"/>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
-      <c r="AG32" s="27"/>
-      <c r="AH32" s="27"/>
-      <c r="AI32" s="27"/>
-      <c r="AJ32" s="27"/>
-      <c r="AK32" s="27"/>
-      <c r="AL32" s="27"/>
-      <c r="AM32" s="27"/>
-      <c r="AN32" s="27"/>
-      <c r="AO32" s="27"/>
-      <c r="AP32" s="27"/>
-      <c r="AQ32" s="27"/>
-      <c r="AR32" s="27"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+      <c r="AI32" s="29"/>
+      <c r="AJ32" s="29"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="29"/>
+      <c r="AM32" s="29"/>
+      <c r="AN32" s="29"/>
+      <c r="AO32" s="29"/>
+      <c r="AP32" s="29"/>
+      <c r="AQ32" s="29"/>
+      <c r="AR32" s="29"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="27"/>
-      <c r="AR33" s="27"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27" t="s">
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="O34" s="27" t="s">
+      <c r="O34" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27"/>
-      <c r="AQ34" s="27"/>
-      <c r="AR34" s="27"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+      <c r="AI34" s="29"/>
+      <c r="AJ34" s="29"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="29"/>
+      <c r="AM34" s="29"/>
+      <c r="AN34" s="29"/>
+      <c r="AO34" s="29"/>
+      <c r="AP34" s="29"/>
+      <c r="AQ34" s="29"/>
+      <c r="AR34" s="29"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27" t="s">
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="O35" s="27" t="s">
+      <c r="O35" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="27"/>
-      <c r="AJ35" s="27"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="27"/>
-      <c r="AP35" s="27"/>
-      <c r="AQ35" s="27"/>
-      <c r="AR35" s="27"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
-      <c r="AA36" s="27"/>
-      <c r="AB36" s="27"/>
-      <c r="AC36" s="27"/>
-      <c r="AD36" s="27"/>
-      <c r="AE36" s="27"/>
-      <c r="AF36" s="27"/>
-      <c r="AG36" s="27"/>
-      <c r="AH36" s="27"/>
-      <c r="AI36" s="27"/>
-      <c r="AJ36" s="27"/>
-      <c r="AK36" s="27"/>
-      <c r="AL36" s="27"/>
-      <c r="AM36" s="27"/>
-      <c r="AN36" s="27"/>
-      <c r="AO36" s="27"/>
-      <c r="AP36" s="27"/>
-      <c r="AQ36" s="27"/>
-      <c r="AR36" s="27"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27" t="s">
+      <c r="D37" s="30"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="27"/>
-      <c r="S37" s="27"/>
-      <c r="T37" s="27"/>
-      <c r="U37" s="27"/>
-      <c r="V37" s="27"/>
-      <c r="W37" s="27"/>
-      <c r="X37" s="27"/>
-      <c r="Y37" s="27"/>
-      <c r="Z37" s="27"/>
-      <c r="AA37" s="27"/>
-      <c r="AB37" s="27"/>
-      <c r="AC37" s="27"/>
-      <c r="AD37" s="27"/>
-      <c r="AE37" s="27"/>
-      <c r="AF37" s="27"/>
-      <c r="AG37" s="27"/>
-      <c r="AH37" s="27"/>
-      <c r="AI37" s="27"/>
-      <c r="AJ37" s="27"/>
-      <c r="AK37" s="27"/>
-      <c r="AL37" s="27"/>
-      <c r="AM37" s="27"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="27"/>
-      <c r="AQ37" s="27"/>
-      <c r="AR37" s="27"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="29" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="27"/>
-      <c r="AQ38" s="27"/>
-      <c r="AR38" s="27"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+      <c r="AI39" s="29"/>
+      <c r="AJ39" s="29"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="29"/>
+      <c r="AN39" s="29"/>
+      <c r="AO39" s="29"/>
+      <c r="AP39" s="29"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="29"/>
     </row>
     <row r="40" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27" t="b">
+      <c r="D40" s="30"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="27"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+      <c r="AI40" s="29"/>
+      <c r="AJ40" s="29"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="29"/>
+      <c r="AM40" s="29"/>
+      <c r="AN40" s="29"/>
+      <c r="AO40" s="29"/>
+      <c r="AP40" s="29"/>
+      <c r="AQ40" s="29"/>
+      <c r="AR40" s="29"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="27"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="27"/>
-      <c r="X41" s="27"/>
-      <c r="Y41" s="27"/>
-      <c r="Z41" s="27"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="27"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="27"/>
-      <c r="AF41" s="27"/>
-      <c r="AG41" s="27"/>
-      <c r="AH41" s="27"/>
-      <c r="AI41" s="27"/>
-      <c r="AJ41" s="27"/>
-      <c r="AK41" s="27"/>
-      <c r="AL41" s="27"/>
-      <c r="AM41" s="27"/>
-      <c r="AN41" s="27"/>
-      <c r="AO41" s="27"/>
-      <c r="AP41" s="27"/>
-      <c r="AQ41" s="27"/>
-      <c r="AR41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
+      <c r="X41" s="29"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="29"/>
+      <c r="AA41" s="29"/>
+      <c r="AB41" s="29"/>
+      <c r="AC41" s="29"/>
+      <c r="AD41" s="29"/>
+      <c r="AE41" s="29"/>
+      <c r="AF41" s="29"/>
+      <c r="AG41" s="29"/>
+      <c r="AH41" s="29"/>
+      <c r="AI41" s="29"/>
+      <c r="AJ41" s="29"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="29"/>
+      <c r="AM41" s="29"/>
+      <c r="AN41" s="29"/>
+      <c r="AO41" s="29"/>
+      <c r="AP41" s="29"/>
+      <c r="AQ41" s="29"/>
+      <c r="AR41" s="29"/>
     </row>
     <row r="42" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27" t="s">
+      <c r="H42" s="29"/>
+      <c r="I42" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27" t="s">
+      <c r="J42" s="29"/>
+      <c r="K42" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="34" t="b">
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="36" t="b">
         <f t="shared" ref="N42:N43" si="0">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="O42" s="27" t="s">
+      <c r="O42" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
-      <c r="AA42" s="27"/>
-      <c r="AB42" s="27"/>
-      <c r="AC42" s="27"/>
-      <c r="AD42" s="27"/>
-      <c r="AE42" s="27"/>
-      <c r="AF42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AH42" s="27"/>
-      <c r="AI42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AK42" s="27"/>
-      <c r="AL42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AN42" s="27"/>
-      <c r="AO42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AQ42" s="27"/>
-      <c r="AR42" s="27"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
+      <c r="X42" s="29"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="29"/>
+      <c r="AA42" s="29"/>
+      <c r="AB42" s="29"/>
+      <c r="AC42" s="29"/>
+      <c r="AD42" s="29"/>
+      <c r="AE42" s="29"/>
+      <c r="AF42" s="29"/>
+      <c r="AG42" s="29"/>
+      <c r="AH42" s="29"/>
+      <c r="AI42" s="29"/>
+      <c r="AJ42" s="29"/>
+      <c r="AK42" s="29"/>
+      <c r="AL42" s="29"/>
+      <c r="AM42" s="29"/>
+      <c r="AN42" s="29"/>
+      <c r="AO42" s="29"/>
+      <c r="AP42" s="29"/>
+      <c r="AQ42" s="29"/>
+      <c r="AR42" s="29"/>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="G43" s="27" t="s">
+      <c r="G43" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27" t="s">
+      <c r="H43" s="29"/>
+      <c r="I43" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="34" t="b">
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="36" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O43" s="27" t="s">
+      <c r="O43" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
-      <c r="AA43" s="27"/>
-      <c r="AB43" s="27"/>
-      <c r="AC43" s="27"/>
-      <c r="AD43" s="27"/>
-      <c r="AE43" s="27"/>
-      <c r="AF43" s="27"/>
-      <c r="AG43" s="27"/>
-      <c r="AH43" s="27"/>
-      <c r="AI43" s="27"/>
-      <c r="AJ43" s="27"/>
-      <c r="AK43" s="27"/>
-      <c r="AL43" s="27"/>
-      <c r="AM43" s="27"/>
-      <c r="AN43" s="27"/>
-      <c r="AO43" s="27"/>
-      <c r="AP43" s="27"/>
-      <c r="AQ43" s="27"/>
-      <c r="AR43" s="27"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
+      <c r="X43" s="29"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="29"/>
+      <c r="AL43" s="29"/>
+      <c r="AM43" s="29"/>
+      <c r="AN43" s="29"/>
+      <c r="AO43" s="29"/>
+      <c r="AP43" s="29"/>
+      <c r="AQ43" s="29"/>
+      <c r="AR43" s="29"/>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="27" t="s">
+      <c r="G44" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27" t="s">
+      <c r="H44" s="29"/>
+      <c r="I44" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K44" s="27" t="s">
+      <c r="K44" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L44" s="27" t="s">
+      <c r="L44" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="29"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="29"/>
+      <c r="AL44" s="29"/>
+      <c r="AM44" s="29"/>
+      <c r="AN44" s="29"/>
+      <c r="AO44" s="29"/>
+      <c r="AP44" s="29"/>
+      <c r="AQ44" s="29"/>
+      <c r="AR44" s="29"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="G45" s="27" t="s">
+      <c r="G45" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27" t="s">
+      <c r="H45" s="29"/>
+      <c r="I45" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27" t="s">
+      <c r="J45" s="29"/>
+      <c r="K45" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="27"/>
-      <c r="AI45" s="27"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="27"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="27"/>
-      <c r="AR45" s="27"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="29"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="29"/>
+      <c r="AL45" s="29"/>
+      <c r="AM45" s="29"/>
+      <c r="AN45" s="29"/>
+      <c r="AO45" s="29"/>
+      <c r="AP45" s="29"/>
+      <c r="AQ45" s="29"/>
+      <c r="AR45" s="29"/>
     </row>
     <row r="46" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D46" s="27" t="s">
+      <c r="D46" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="G46" s="27" t="s">
+      <c r="G46" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27" t="s">
+      <c r="H46" s="29"/>
+      <c r="I46" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J46" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="27" t="s">
+      <c r="K46" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="27"/>
-      <c r="AJ46" s="27"/>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="27"/>
-      <c r="AR46" s="27"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="29"/>
+      <c r="Y46" s="29"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="29"/>
+      <c r="AM46" s="29"/>
+      <c r="AN46" s="29"/>
+      <c r="AO46" s="29"/>
+      <c r="AP46" s="29"/>
+      <c r="AQ46" s="29"/>
+      <c r="AR46" s="29"/>
     </row>
     <row r="47" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="G47" s="27" t="s">
+      <c r="G47" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27" t="s">
+      <c r="H47" s="29"/>
+      <c r="I47" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27" t="s">
+      <c r="J47" s="29"/>
+      <c r="K47" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="27"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="27"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="27"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="27"/>
-      <c r="X47" s="27"/>
-      <c r="Y47" s="27"/>
-      <c r="Z47" s="27"/>
-      <c r="AA47" s="27"/>
-      <c r="AB47" s="27"/>
-      <c r="AC47" s="27"/>
-      <c r="AD47" s="27"/>
-      <c r="AE47" s="27"/>
-      <c r="AF47" s="27"/>
-      <c r="AG47" s="27"/>
-      <c r="AH47" s="27"/>
-      <c r="AI47" s="27"/>
-      <c r="AJ47" s="27"/>
-      <c r="AK47" s="27"/>
-      <c r="AL47" s="27"/>
-      <c r="AM47" s="27"/>
-      <c r="AN47" s="27"/>
-      <c r="AO47" s="27"/>
-      <c r="AP47" s="27"/>
-      <c r="AQ47" s="27"/>
-      <c r="AR47" s="27"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="29"/>
+      <c r="Y47" s="29"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="29"/>
+      <c r="AM47" s="29"/>
+      <c r="AN47" s="29"/>
+      <c r="AO47" s="29"/>
+      <c r="AP47" s="29"/>
+      <c r="AQ47" s="29"/>
+      <c r="AR47" s="29"/>
     </row>
     <row r="48" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27" t="s">
+      <c r="H48" s="29"/>
+      <c r="I48" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27" t="s">
+      <c r="J48" s="29"/>
+      <c r="K48" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="L48" s="27" t="s">
+      <c r="L48" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="M48" s="27"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="27"/>
-      <c r="P48" s="27"/>
-      <c r="Q48" s="27"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="27"/>
-      <c r="T48" s="27"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="27"/>
-      <c r="W48" s="27"/>
-      <c r="X48" s="27"/>
-      <c r="Y48" s="27"/>
-      <c r="Z48" s="27"/>
-      <c r="AA48" s="27"/>
-      <c r="AB48" s="27"/>
-      <c r="AC48" s="27"/>
-      <c r="AD48" s="27"/>
-      <c r="AE48" s="27"/>
-      <c r="AF48" s="27"/>
-      <c r="AG48" s="27"/>
-      <c r="AH48" s="27"/>
-      <c r="AI48" s="27"/>
-      <c r="AJ48" s="27"/>
-      <c r="AK48" s="27"/>
-      <c r="AL48" s="27"/>
-      <c r="AM48" s="27"/>
-      <c r="AN48" s="27"/>
-      <c r="AO48" s="27"/>
-      <c r="AP48" s="27"/>
-      <c r="AQ48" s="27"/>
-      <c r="AR48" s="27"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="29"/>
+      <c r="Y48" s="29"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="29"/>
+      <c r="AL48" s="29"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="29"/>
+      <c r="AO48" s="29"/>
+      <c r="AP48" s="29"/>
+      <c r="AQ48" s="29"/>
+      <c r="AR48" s="29"/>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C49" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27" t="s">
+      <c r="C49" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M49" s="27"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
-      <c r="V49" s="27"/>
-      <c r="W49" s="27"/>
-      <c r="X49" s="27"/>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
-      <c r="AG49" s="27"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="27"/>
-      <c r="AJ49" s="27"/>
-      <c r="AK49" s="27"/>
-      <c r="AL49" s="27"/>
-      <c r="AM49" s="27"/>
-      <c r="AN49" s="27"/>
-      <c r="AO49" s="27"/>
-      <c r="AP49" s="27"/>
-      <c r="AQ49" s="27"/>
-      <c r="AR49" s="27"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="29"/>
+      <c r="AM49" s="29"/>
+      <c r="AN49" s="29"/>
+      <c r="AO49" s="29"/>
+      <c r="AP49" s="29"/>
+      <c r="AQ49" s="29"/>
+      <c r="AR49" s="29"/>
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="27"/>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="27"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="29"/>
+      <c r="Y50" s="29"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="29"/>
+      <c r="AM50" s="29"/>
+      <c r="AN50" s="29"/>
+      <c r="AO50" s="29"/>
+      <c r="AP50" s="29"/>
+      <c r="AQ50" s="29"/>
+      <c r="AR50" s="29"/>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
-      <c r="V51" s="27"/>
-      <c r="W51" s="27"/>
-      <c r="X51" s="27"/>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27"/>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27"/>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
-      <c r="AG51" s="27"/>
-      <c r="AH51" s="27"/>
-      <c r="AI51" s="27"/>
-      <c r="AJ51" s="27"/>
-      <c r="AK51" s="27"/>
-      <c r="AL51" s="27"/>
-      <c r="AM51" s="27"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="27"/>
-      <c r="AR51" s="27"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="29"/>
+      <c r="AL51" s="29"/>
+      <c r="AM51" s="29"/>
+      <c r="AN51" s="29"/>
+      <c r="AO51" s="29"/>
+      <c r="AP51" s="29"/>
+      <c r="AQ51" s="29"/>
+      <c r="AR51" s="29"/>
     </row>
     <row r="52" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="27"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="27"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="27"/>
-      <c r="Y52" s="27"/>
-      <c r="Z52" s="27"/>
-      <c r="AA52" s="27"/>
-      <c r="AB52" s="27"/>
-      <c r="AC52" s="27"/>
-      <c r="AD52" s="27"/>
-      <c r="AE52" s="27"/>
-      <c r="AF52" s="27"/>
-      <c r="AG52" s="27"/>
-      <c r="AH52" s="27"/>
-      <c r="AI52" s="27"/>
-      <c r="AJ52" s="27"/>
-      <c r="AK52" s="27"/>
-      <c r="AL52" s="27"/>
-      <c r="AM52" s="27"/>
-      <c r="AN52" s="27"/>
-      <c r="AO52" s="27"/>
-      <c r="AP52" s="27"/>
-      <c r="AQ52" s="27"/>
-      <c r="AR52" s="27"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
+      <c r="X52" s="29"/>
+      <c r="Y52" s="29"/>
+      <c r="Z52" s="29"/>
+      <c r="AA52" s="29"/>
+      <c r="AB52" s="29"/>
+      <c r="AC52" s="29"/>
+      <c r="AD52" s="29"/>
+      <c r="AE52" s="29"/>
+      <c r="AF52" s="29"/>
+      <c r="AG52" s="29"/>
+      <c r="AH52" s="29"/>
+      <c r="AI52" s="29"/>
+      <c r="AJ52" s="29"/>
+      <c r="AK52" s="29"/>
+      <c r="AL52" s="29"/>
+      <c r="AM52" s="29"/>
+      <c r="AN52" s="29"/>
+      <c r="AO52" s="29"/>
+      <c r="AP52" s="29"/>
+      <c r="AQ52" s="29"/>
+      <c r="AR52" s="29"/>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="27"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="27"/>
-      <c r="V53" s="27"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="27"/>
-      <c r="Y53" s="27"/>
-      <c r="Z53" s="27"/>
-      <c r="AA53" s="27"/>
-      <c r="AB53" s="27"/>
-      <c r="AC53" s="27"/>
-      <c r="AD53" s="27"/>
-      <c r="AE53" s="27"/>
-      <c r="AF53" s="27"/>
-      <c r="AG53" s="27"/>
-      <c r="AH53" s="27"/>
-      <c r="AI53" s="27"/>
-      <c r="AJ53" s="27"/>
-      <c r="AK53" s="27"/>
-      <c r="AL53" s="27"/>
-      <c r="AM53" s="27"/>
-      <c r="AN53" s="27"/>
-      <c r="AO53" s="27"/>
-      <c r="AP53" s="27"/>
-      <c r="AQ53" s="27"/>
-      <c r="AR53" s="27"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
+      <c r="AE53" s="29"/>
+      <c r="AF53" s="29"/>
+      <c r="AG53" s="29"/>
+      <c r="AH53" s="29"/>
+      <c r="AI53" s="29"/>
+      <c r="AJ53" s="29"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="29"/>
+      <c r="AM53" s="29"/>
+      <c r="AN53" s="29"/>
+      <c r="AO53" s="29"/>
+      <c r="AP53" s="29"/>
+      <c r="AQ53" s="29"/>
+      <c r="AR53" s="29"/>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="27"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="Z54" s="27"/>
-      <c r="AA54" s="27"/>
-      <c r="AB54" s="27"/>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
-      <c r="AH54" s="27"/>
-      <c r="AI54" s="27"/>
-      <c r="AJ54" s="27"/>
-      <c r="AK54" s="27"/>
-      <c r="AL54" s="27"/>
-      <c r="AM54" s="27"/>
-      <c r="AN54" s="27"/>
-      <c r="AO54" s="27"/>
-      <c r="AP54" s="27"/>
-      <c r="AQ54" s="27"/>
-      <c r="AR54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
+      <c r="X54" s="29"/>
+      <c r="Y54" s="29"/>
+      <c r="Z54" s="29"/>
+      <c r="AA54" s="29"/>
+      <c r="AB54" s="29"/>
+      <c r="AC54" s="29"/>
+      <c r="AD54" s="29"/>
+      <c r="AE54" s="29"/>
+      <c r="AF54" s="29"/>
+      <c r="AG54" s="29"/>
+      <c r="AH54" s="29"/>
+      <c r="AI54" s="29"/>
+      <c r="AJ54" s="29"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="29"/>
+      <c r="AM54" s="29"/>
+      <c r="AN54" s="29"/>
+      <c r="AO54" s="29"/>
+      <c r="AP54" s="29"/>
+      <c r="AQ54" s="29"/>
+      <c r="AR54" s="29"/>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="4:24">
-      <c r="D55" s="25"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="27"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="15"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="29"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="29"/>
     </row>
     <row r="56" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27" t="s">
+      <c r="C56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J56" s="29"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="27"/>
-      <c r="T56" s="27"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="27"/>
-      <c r="W56" s="27"/>
-      <c r="X56" s="27"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="27"/>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27"/>
-      <c r="AF56" s="27"/>
-      <c r="AG56" s="27"/>
-      <c r="AH56" s="27"/>
-      <c r="AI56" s="27"/>
-      <c r="AJ56" s="27"/>
-      <c r="AK56" s="27"/>
-      <c r="AL56" s="27"/>
-      <c r="AM56" s="27"/>
-      <c r="AN56" s="27"/>
-      <c r="AO56" s="27"/>
-      <c r="AP56" s="27"/>
-      <c r="AQ56" s="27"/>
-      <c r="AR56" s="27"/>
+      <c r="M56" s="29"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
+      <c r="X56" s="29"/>
+      <c r="Y56" s="29"/>
+      <c r="Z56" s="29"/>
+      <c r="AA56" s="29"/>
+      <c r="AB56" s="29"/>
+      <c r="AC56" s="29"/>
+      <c r="AD56" s="29"/>
+      <c r="AE56" s="29"/>
+      <c r="AF56" s="29"/>
+      <c r="AG56" s="29"/>
+      <c r="AH56" s="29"/>
+      <c r="AI56" s="29"/>
+      <c r="AJ56" s="29"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="29"/>
+      <c r="AM56" s="29"/>
+      <c r="AN56" s="29"/>
+      <c r="AO56" s="29"/>
+      <c r="AP56" s="29"/>
+      <c r="AQ56" s="29"/>
+      <c r="AR56" s="29"/>
     </row>
     <row r="57" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C57" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G57" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="27"/>
-      <c r="T57" s="27"/>
-      <c r="U57" s="27"/>
-      <c r="V57" s="27"/>
-      <c r="W57" s="27"/>
-      <c r="X57" s="27"/>
-      <c r="Y57" s="27" t="s">
+      <c r="C57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+      <c r="Y57" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="Z57" s="27"/>
-      <c r="AA57" s="27"/>
-      <c r="AB57" s="27"/>
-      <c r="AC57" s="27"/>
-      <c r="AD57" s="27"/>
-      <c r="AE57" s="27"/>
-      <c r="AF57" s="27"/>
-      <c r="AG57" s="27"/>
-      <c r="AH57" s="27"/>
-      <c r="AI57" s="27"/>
-      <c r="AJ57" s="27"/>
-      <c r="AK57" s="27"/>
-      <c r="AL57" s="27"/>
-      <c r="AM57" s="27"/>
-      <c r="AN57" s="27"/>
-      <c r="AO57" s="27"/>
-      <c r="AP57" s="27"/>
-      <c r="AQ57" s="27"/>
-      <c r="AR57" s="27"/>
+      <c r="Z57" s="29"/>
+      <c r="AA57" s="29"/>
+      <c r="AB57" s="29"/>
+      <c r="AC57" s="29"/>
+      <c r="AD57" s="29"/>
+      <c r="AE57" s="29"/>
+      <c r="AF57" s="29"/>
+      <c r="AG57" s="29"/>
+      <c r="AH57" s="29"/>
+      <c r="AI57" s="29"/>
+      <c r="AJ57" s="29"/>
+      <c r="AK57" s="29"/>
+      <c r="AL57" s="29"/>
+      <c r="AM57" s="29"/>
+      <c r="AN57" s="29"/>
+      <c r="AO57" s="29"/>
+      <c r="AP57" s="29"/>
+      <c r="AQ57" s="29"/>
+      <c r="AR57" s="29"/>
     </row>
     <row r="58" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-      <c r="AF58" s="27"/>
-      <c r="AG58" s="27"/>
-      <c r="AH58" s="27"/>
-      <c r="AI58" s="27"/>
-      <c r="AJ58" s="27"/>
-      <c r="AK58" s="27"/>
-      <c r="AL58" s="27"/>
-      <c r="AM58" s="27"/>
-      <c r="AN58" s="27"/>
-      <c r="AO58" s="27"/>
-      <c r="AP58" s="27"/>
-      <c r="AQ58" s="27"/>
-      <c r="AR58" s="27"/>
+      <c r="C58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
+      <c r="AE58" s="29"/>
+      <c r="AF58" s="29"/>
+      <c r="AG58" s="29"/>
+      <c r="AH58" s="29"/>
+      <c r="AI58" s="29"/>
+      <c r="AJ58" s="29"/>
+      <c r="AK58" s="29"/>
+      <c r="AL58" s="29"/>
+      <c r="AM58" s="29"/>
+      <c r="AN58" s="29"/>
+      <c r="AO58" s="29"/>
+      <c r="AP58" s="29"/>
+      <c r="AQ58" s="29"/>
+      <c r="AR58" s="29"/>
     </row>
     <row r="59" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="G59" s="27" t="s">
+      <c r="G59" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27" t="s">
+      <c r="H59" s="29"/>
+      <c r="I59" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="J59" s="27" t="s">
+      <c r="J59" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="27" t="s">
+      <c r="K59" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="L59" s="27" t="s">
+      <c r="L59" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="M59" s="27"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
-      <c r="V59" s="27"/>
-      <c r="W59" s="27"/>
-      <c r="X59" s="27"/>
-      <c r="Y59" s="27" t="s">
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="29"/>
+      <c r="Y59" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
-      <c r="AF59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AK59" s="27"/>
-      <c r="AL59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AN59" s="27"/>
-      <c r="AO59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AQ59" s="27"/>
-      <c r="AR59" s="27"/>
+      <c r="Z59" s="29"/>
+      <c r="AA59" s="29"/>
+      <c r="AB59" s="29"/>
+      <c r="AC59" s="29"/>
+      <c r="AD59" s="29"/>
+      <c r="AE59" s="29"/>
+      <c r="AF59" s="29"/>
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29"/>
+      <c r="AI59" s="29"/>
+      <c r="AJ59" s="29"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="29"/>
+      <c r="AM59" s="29"/>
+      <c r="AN59" s="29"/>
+      <c r="AO59" s="29"/>
+      <c r="AP59" s="29"/>
+      <c r="AQ59" s="29"/>
+      <c r="AR59" s="29"/>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27" t="s">
+      <c r="H60" s="29"/>
+      <c r="I60" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="J60" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="27" t="s">
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="Q60" s="27"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="27"/>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="27"/>
-      <c r="W60" s="27"/>
-      <c r="X60" s="27"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27"/>
-      <c r="AF60" s="27"/>
-      <c r="AG60" s="27"/>
-      <c r="AH60" s="27"/>
-      <c r="AI60" s="27"/>
-      <c r="AJ60" s="27"/>
-      <c r="AK60" s="27"/>
-      <c r="AL60" s="27"/>
-      <c r="AM60" s="27"/>
-      <c r="AN60" s="27"/>
-      <c r="AO60" s="27"/>
-      <c r="AP60" s="27"/>
-      <c r="AQ60" s="27"/>
-      <c r="AR60" s="27"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
+      <c r="X60" s="29"/>
+      <c r="Y60" s="29"/>
+      <c r="Z60" s="29"/>
+      <c r="AA60" s="29"/>
+      <c r="AB60" s="29"/>
+      <c r="AC60" s="29"/>
+      <c r="AD60" s="29"/>
+      <c r="AE60" s="29"/>
+      <c r="AF60" s="29"/>
+      <c r="AG60" s="29"/>
+      <c r="AH60" s="29"/>
+      <c r="AI60" s="29"/>
+      <c r="AJ60" s="29"/>
+      <c r="AK60" s="29"/>
+      <c r="AL60" s="29"/>
+      <c r="AM60" s="29"/>
+      <c r="AN60" s="29"/>
+      <c r="AO60" s="29"/>
+      <c r="AP60" s="29"/>
+      <c r="AQ60" s="29"/>
+      <c r="AR60" s="29"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C61" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G61" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27" t="s">
+      <c r="H61" s="29"/>
+      <c r="I61" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="27"/>
-      <c r="Q61" s="27"/>
-      <c r="R61" s="27"/>
-      <c r="S61" s="27"/>
-      <c r="T61" s="27"/>
-      <c r="U61" s="27"/>
-      <c r="V61" s="27"/>
-      <c r="W61" s="27"/>
-      <c r="X61" s="27"/>
-      <c r="Y61" s="27"/>
-      <c r="Z61" s="27"/>
-      <c r="AA61" s="27"/>
-      <c r="AB61" s="27"/>
-      <c r="AC61" s="27"/>
-      <c r="AD61" s="27"/>
-      <c r="AE61" s="27"/>
-      <c r="AF61" s="27"/>
-      <c r="AG61" s="27"/>
-      <c r="AH61" s="27"/>
-      <c r="AI61" s="27"/>
-      <c r="AJ61" s="27"/>
-      <c r="AK61" s="27"/>
-      <c r="AL61" s="27"/>
-      <c r="AM61" s="27"/>
-      <c r="AN61" s="27"/>
-      <c r="AO61" s="27"/>
-      <c r="AP61" s="27"/>
-      <c r="AQ61" s="27"/>
-      <c r="AR61" s="27"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="29"/>
+      <c r="Y61" s="29"/>
+      <c r="Z61" s="29"/>
+      <c r="AA61" s="29"/>
+      <c r="AB61" s="29"/>
+      <c r="AC61" s="29"/>
+      <c r="AD61" s="29"/>
+      <c r="AE61" s="29"/>
+      <c r="AF61" s="29"/>
+      <c r="AG61" s="29"/>
+      <c r="AH61" s="29"/>
+      <c r="AI61" s="29"/>
+      <c r="AJ61" s="29"/>
+      <c r="AK61" s="29"/>
+      <c r="AL61" s="29"/>
+      <c r="AM61" s="29"/>
+      <c r="AN61" s="29"/>
+      <c r="AO61" s="29"/>
+      <c r="AP61" s="29"/>
+      <c r="AQ61" s="29"/>
+      <c r="AR61" s="29"/>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="G62" s="28" t="s">
+      <c r="G62" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27" t="s">
+      <c r="H62" s="29"/>
+      <c r="I62" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27" t="s">
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="M62" s="27"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="27"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="27"/>
-      <c r="R62" s="27"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
-      <c r="V62" s="27"/>
-      <c r="W62" s="27"/>
-      <c r="X62" s="27"/>
-      <c r="Y62" s="27"/>
-      <c r="Z62" s="27"/>
-      <c r="AA62" s="27"/>
-      <c r="AB62" s="27"/>
-      <c r="AC62" s="27"/>
-      <c r="AD62" s="27"/>
-      <c r="AE62" s="27"/>
-      <c r="AF62" s="27"/>
-      <c r="AG62" s="27"/>
-      <c r="AH62" s="27"/>
-      <c r="AI62" s="27"/>
-      <c r="AJ62" s="27"/>
-      <c r="AK62" s="27"/>
-      <c r="AL62" s="27"/>
-      <c r="AM62" s="27"/>
-      <c r="AN62" s="27"/>
-      <c r="AO62" s="27"/>
-      <c r="AP62" s="27"/>
-      <c r="AQ62" s="27"/>
-      <c r="AR62" s="27"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
+      <c r="X62" s="29"/>
+      <c r="Y62" s="29"/>
+      <c r="Z62" s="29"/>
+      <c r="AA62" s="29"/>
+      <c r="AB62" s="29"/>
+      <c r="AC62" s="29"/>
+      <c r="AD62" s="29"/>
+      <c r="AE62" s="29"/>
+      <c r="AF62" s="29"/>
+      <c r="AG62" s="29"/>
+      <c r="AH62" s="29"/>
+      <c r="AI62" s="29"/>
+      <c r="AJ62" s="29"/>
+      <c r="AK62" s="29"/>
+      <c r="AL62" s="29"/>
+      <c r="AM62" s="29"/>
+      <c r="AN62" s="29"/>
+      <c r="AO62" s="29"/>
+      <c r="AP62" s="29"/>
+      <c r="AQ62" s="29"/>
+      <c r="AR62" s="29"/>
     </row>
     <row r="63" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="27"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="27"/>
-      <c r="P63" s="27" t="s">
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="Q63" s="27"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="27"/>
-      <c r="T63" s="27"/>
-      <c r="U63" s="27"/>
-      <c r="V63" s="27"/>
-      <c r="W63" s="27"/>
-      <c r="X63" s="27"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="27"/>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="27"/>
-      <c r="AF63" s="27"/>
-      <c r="AG63" s="27"/>
-      <c r="AH63" s="27"/>
-      <c r="AI63" s="27"/>
-      <c r="AJ63" s="27"/>
-      <c r="AK63" s="27"/>
-      <c r="AL63" s="27"/>
-      <c r="AM63" s="27"/>
-      <c r="AN63" s="27"/>
-      <c r="AO63" s="27"/>
-      <c r="AP63" s="27"/>
-      <c r="AQ63" s="27"/>
-      <c r="AR63" s="27"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="29"/>
+      <c r="AA63" s="29"/>
+      <c r="AB63" s="29"/>
+      <c r="AC63" s="29"/>
+      <c r="AD63" s="29"/>
+      <c r="AE63" s="29"/>
+      <c r="AF63" s="29"/>
+      <c r="AG63" s="29"/>
+      <c r="AH63" s="29"/>
+      <c r="AI63" s="29"/>
+      <c r="AJ63" s="29"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="29"/>
+      <c r="AM63" s="29"/>
+      <c r="AN63" s="29"/>
+      <c r="AO63" s="29"/>
+      <c r="AP63" s="29"/>
+      <c r="AQ63" s="29"/>
+      <c r="AR63" s="29"/>
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="27"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="27"/>
-      <c r="P64" s="27" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="Q64" s="27"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="27"/>
-      <c r="T64" s="27"/>
-      <c r="U64" s="27"/>
-      <c r="V64" s="27"/>
-      <c r="W64" s="27"/>
-      <c r="X64" s="27"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="27"/>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27"/>
-      <c r="AF64" s="27"/>
-      <c r="AG64" s="27"/>
-      <c r="AH64" s="27"/>
-      <c r="AI64" s="27"/>
-      <c r="AJ64" s="27"/>
-      <c r="AK64" s="27"/>
-      <c r="AL64" s="27"/>
-      <c r="AM64" s="27"/>
-      <c r="AN64" s="27"/>
-      <c r="AO64" s="27"/>
-      <c r="AP64" s="27"/>
-      <c r="AQ64" s="27"/>
-      <c r="AR64" s="27"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
+      <c r="X64" s="29"/>
+      <c r="Y64" s="29"/>
+      <c r="Z64" s="29"/>
+      <c r="AA64" s="29"/>
+      <c r="AB64" s="29"/>
+      <c r="AC64" s="29"/>
+      <c r="AD64" s="29"/>
+      <c r="AE64" s="29"/>
+      <c r="AF64" s="29"/>
+      <c r="AG64" s="29"/>
+      <c r="AH64" s="29"/>
+      <c r="AI64" s="29"/>
+      <c r="AJ64" s="29"/>
+      <c r="AK64" s="29"/>
+      <c r="AL64" s="29"/>
+      <c r="AM64" s="29"/>
+      <c r="AN64" s="29"/>
+      <c r="AO64" s="29"/>
+      <c r="AP64" s="29"/>
+      <c r="AQ64" s="29"/>
+      <c r="AR64" s="29"/>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="C65" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G65" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27" t="s">
+      <c r="C65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="J65" s="29"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M65" s="27"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="27"/>
-      <c r="P65" s="27"/>
-      <c r="Q65" s="27"/>
-      <c r="R65" s="27"/>
-      <c r="S65" s="27"/>
-      <c r="T65" s="27"/>
-      <c r="U65" s="27"/>
-      <c r="V65" s="27"/>
-      <c r="W65" s="27"/>
-      <c r="X65" s="27"/>
-      <c r="Y65" s="27"/>
-      <c r="Z65" s="27"/>
-      <c r="AA65" s="27"/>
-      <c r="AB65" s="27"/>
-      <c r="AC65" s="27"/>
-      <c r="AD65" s="27"/>
-      <c r="AE65" s="27"/>
-      <c r="AF65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AH65" s="27"/>
-      <c r="AI65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AK65" s="27"/>
-      <c r="AL65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AN65" s="27"/>
-      <c r="AO65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AQ65" s="27"/>
-      <c r="AR65" s="27"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+      <c r="Y65" s="29"/>
+      <c r="Z65" s="29"/>
+      <c r="AA65" s="29"/>
+      <c r="AB65" s="29"/>
+      <c r="AC65" s="29"/>
+      <c r="AD65" s="29"/>
+      <c r="AE65" s="29"/>
+      <c r="AF65" s="29"/>
+      <c r="AG65" s="29"/>
+      <c r="AH65" s="29"/>
+      <c r="AI65" s="29"/>
+      <c r="AJ65" s="29"/>
+      <c r="AK65" s="29"/>
+      <c r="AL65" s="29"/>
+      <c r="AM65" s="29"/>
+      <c r="AN65" s="29"/>
+      <c r="AO65" s="29"/>
+      <c r="AP65" s="29"/>
+      <c r="AQ65" s="29"/>
+      <c r="AR65" s="29"/>
     </row>
     <row r="66" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="27"/>
-      <c r="P66" s="27" t="s">
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
+      <c r="P66" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="Q66" s="27"/>
-      <c r="R66" s="27"/>
-      <c r="S66" s="27"/>
-      <c r="T66" s="27"/>
-      <c r="U66" s="27"/>
-      <c r="V66" s="27"/>
-      <c r="W66" s="27"/>
-      <c r="X66" s="27"/>
-      <c r="Y66" s="27"/>
-      <c r="Z66" s="27"/>
-      <c r="AA66" s="27"/>
-      <c r="AB66" s="27"/>
-      <c r="AC66" s="27"/>
-      <c r="AD66" s="27"/>
-      <c r="AE66" s="27"/>
-      <c r="AF66" s="27"/>
-      <c r="AG66" s="27"/>
-      <c r="AH66" s="27"/>
-      <c r="AI66" s="27"/>
-      <c r="AJ66" s="27"/>
-      <c r="AK66" s="27"/>
-      <c r="AL66" s="27"/>
-      <c r="AM66" s="27"/>
-      <c r="AN66" s="27"/>
-      <c r="AO66" s="27"/>
-      <c r="AP66" s="27"/>
-      <c r="AQ66" s="27"/>
-      <c r="AR66" s="27"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
+      <c r="X66" s="29"/>
+      <c r="Y66" s="29"/>
+      <c r="Z66" s="29"/>
+      <c r="AA66" s="29"/>
+      <c r="AB66" s="29"/>
+      <c r="AC66" s="29"/>
+      <c r="AD66" s="29"/>
+      <c r="AE66" s="29"/>
+      <c r="AF66" s="29"/>
+      <c r="AG66" s="29"/>
+      <c r="AH66" s="29"/>
+      <c r="AI66" s="29"/>
+      <c r="AJ66" s="29"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="29"/>
+      <c r="AM66" s="29"/>
+      <c r="AN66" s="29"/>
+      <c r="AO66" s="29"/>
+      <c r="AP66" s="29"/>
+      <c r="AQ66" s="29"/>
+      <c r="AR66" s="29"/>
     </row>
     <row r="67" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="27"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="27"/>
-      <c r="P67" s="27" t="s">
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="P67" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="Q67" s="27"/>
-      <c r="R67" s="27"/>
-      <c r="S67" s="27"/>
-      <c r="T67" s="27"/>
-      <c r="U67" s="27"/>
-      <c r="V67" s="27"/>
-      <c r="W67" s="27"/>
-      <c r="X67" s="27"/>
-      <c r="Y67" s="27"/>
-      <c r="Z67" s="27"/>
-      <c r="AA67" s="27"/>
-      <c r="AB67" s="27"/>
-      <c r="AC67" s="27"/>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="27"/>
-      <c r="AF67" s="27"/>
-      <c r="AG67" s="27"/>
-      <c r="AH67" s="27"/>
-      <c r="AI67" s="27"/>
-      <c r="AJ67" s="27"/>
-      <c r="AK67" s="27"/>
-      <c r="AL67" s="27"/>
-      <c r="AM67" s="27"/>
-      <c r="AN67" s="27"/>
-      <c r="AO67" s="27"/>
-      <c r="AP67" s="27"/>
-      <c r="AQ67" s="27"/>
-      <c r="AR67" s="27"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="29"/>
+      <c r="AF67" s="29"/>
+      <c r="AG67" s="29"/>
+      <c r="AH67" s="29"/>
+      <c r="AI67" s="29"/>
+      <c r="AJ67" s="29"/>
+      <c r="AK67" s="29"/>
+      <c r="AL67" s="29"/>
+      <c r="AM67" s="29"/>
+      <c r="AN67" s="29"/>
+      <c r="AO67" s="29"/>
+      <c r="AP67" s="29"/>
+      <c r="AQ67" s="29"/>
+      <c r="AR67" s="29"/>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="27"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="27"/>
-      <c r="P68" s="27" t="s">
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="Q68" s="27"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="27"/>
-      <c r="T68" s="27"/>
-      <c r="U68" s="27"/>
-      <c r="V68" s="27"/>
-      <c r="W68" s="27"/>
-      <c r="X68" s="27"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="27"/>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="27"/>
-      <c r="AF68" s="27"/>
-      <c r="AG68" s="27"/>
-      <c r="AH68" s="27"/>
-      <c r="AI68" s="27"/>
-      <c r="AJ68" s="27"/>
-      <c r="AK68" s="27"/>
-      <c r="AL68" s="27"/>
-      <c r="AM68" s="27"/>
-      <c r="AN68" s="27"/>
-      <c r="AO68" s="27"/>
-      <c r="AP68" s="27"/>
-      <c r="AQ68" s="27"/>
-      <c r="AR68" s="27"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29"/>
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="29"/>
+      <c r="AG68" s="29"/>
+      <c r="AH68" s="29"/>
+      <c r="AI68" s="29"/>
+      <c r="AJ68" s="29"/>
+      <c r="AK68" s="29"/>
+      <c r="AL68" s="29"/>
+      <c r="AM68" s="29"/>
+      <c r="AN68" s="29"/>
+      <c r="AO68" s="29"/>
+      <c r="AP68" s="29"/>
+      <c r="AQ68" s="29"/>
+      <c r="AR68" s="29"/>
     </row>
     <row r="69" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="27"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="27"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="27"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="27"/>
-      <c r="T69" s="27"/>
-      <c r="U69" s="27"/>
-      <c r="V69" s="27"/>
-      <c r="W69" s="27"/>
-      <c r="X69" s="27"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="27"/>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="27"/>
-      <c r="AF69" s="27"/>
-      <c r="AG69" s="27"/>
-      <c r="AH69" s="27"/>
-      <c r="AI69" s="27"/>
-      <c r="AJ69" s="27"/>
-      <c r="AK69" s="27"/>
-      <c r="AL69" s="27"/>
-      <c r="AM69" s="27"/>
-      <c r="AN69" s="27"/>
-      <c r="AO69" s="27"/>
-      <c r="AP69" s="27"/>
-      <c r="AQ69" s="27"/>
-      <c r="AR69" s="27"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="29"/>
+      <c r="N69" s="29"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="29"/>
+      <c r="AG69" s="29"/>
+      <c r="AH69" s="29"/>
+      <c r="AI69" s="29"/>
+      <c r="AJ69" s="29"/>
+      <c r="AK69" s="29"/>
+      <c r="AL69" s="29"/>
+      <c r="AM69" s="29"/>
+      <c r="AN69" s="29"/>
+      <c r="AO69" s="29"/>
+      <c r="AP69" s="29"/>
+      <c r="AQ69" s="29"/>
+      <c r="AR69" s="29"/>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:44">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="27"/>
-      <c r="P70" s="27"/>
-      <c r="Q70" s="27"/>
-      <c r="R70" s="27"/>
-      <c r="S70" s="27"/>
-      <c r="T70" s="27"/>
-      <c r="U70" s="27"/>
-      <c r="V70" s="27"/>
-      <c r="W70" s="27"/>
-      <c r="X70" s="27"/>
-      <c r="Y70" s="27"/>
-      <c r="Z70" s="27"/>
-      <c r="AA70" s="27"/>
-      <c r="AB70" s="27"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="27"/>
-      <c r="AE70" s="27"/>
-      <c r="AF70" s="27"/>
-      <c r="AG70" s="27"/>
-      <c r="AH70" s="27"/>
-      <c r="AI70" s="27"/>
-      <c r="AJ70" s="27"/>
-      <c r="AK70" s="27"/>
-      <c r="AL70" s="27"/>
-      <c r="AM70" s="27"/>
-      <c r="AN70" s="27"/>
-      <c r="AO70" s="27"/>
-      <c r="AP70" s="27"/>
-      <c r="AQ70" s="27"/>
-      <c r="AR70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="29"/>
+      <c r="O70" s="29"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
+      <c r="Y70" s="29"/>
+      <c r="Z70" s="29"/>
+      <c r="AA70" s="29"/>
+      <c r="AB70" s="29"/>
+      <c r="AC70" s="29"/>
+      <c r="AD70" s="29"/>
+      <c r="AE70" s="29"/>
+      <c r="AF70" s="29"/>
+      <c r="AG70" s="29"/>
+      <c r="AH70" s="29"/>
+      <c r="AI70" s="29"/>
+      <c r="AJ70" s="29"/>
+      <c r="AK70" s="29"/>
+      <c r="AL70" s="29"/>
+      <c r="AM70" s="29"/>
+      <c r="AN70" s="29"/>
+      <c r="AO70" s="29"/>
+      <c r="AP70" s="29"/>
+      <c r="AQ70" s="29"/>
+      <c r="AR70" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6134,10 +6173,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.437037037037" defaultRowHeight="15"/>
@@ -6166,19 +6205,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6195,17 +6234,17 @@
       <c r="D2" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="22" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="24" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6222,17 +6261,17 @@
       <c r="D3" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="22" t="s">
+      <c r="H3" s="20"/>
+      <c r="I3" s="24" t="s">
         <v>235</v>
       </c>
     </row>
@@ -6249,17 +6288,17 @@
       <c r="D4" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="20"/>
+      <c r="I4" s="24" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6276,17 +6315,17 @@
       <c r="D5" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="22" t="s">
+      <c r="H5" s="20"/>
+      <c r="I5" s="24" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6303,17 +6342,17 @@
       <c r="D6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="22" t="s">
+      <c r="H6" s="20"/>
+      <c r="I6" s="24" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6330,17 +6369,17 @@
       <c r="D7" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="22" t="s">
+      <c r="H7" s="20"/>
+      <c r="I7" s="24" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6357,17 +6396,17 @@
       <c r="D8" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="20"/>
+      <c r="I8" s="24" t="s">
         <v>271</v>
       </c>
     </row>
@@ -6382,11 +6421,11 @@
         <v>274</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:9">
       <c r="A10" t="s">
@@ -6401,17 +6440,17 @@
       <c r="D10" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="20"/>
+      <c r="I10" s="24" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6428,17 +6467,17 @@
       <c r="D11" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="22" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="24" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6455,17 +6494,17 @@
       <c r="D12" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="24" t="s">
         <v>295</v>
       </c>
     </row>
@@ -6482,17 +6521,17 @@
       <c r="D13" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="24" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6509,17 +6548,17 @@
       <c r="D14" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="20"/>
+      <c r="I14" s="24" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6536,17 +6575,17 @@
       <c r="D15" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="20"/>
+      <c r="I15" s="24" t="s">
         <v>314</v>
       </c>
     </row>
@@ -6563,17 +6602,17 @@
       <c r="D16" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="24" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6590,17 +6629,17 @@
       <c r="D17" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="20"/>
+      <c r="I17" s="24" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6617,17 +6656,17 @@
       <c r="D18" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="22" t="s">
+      <c r="H18" s="20"/>
+      <c r="I18" s="24" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6644,17 +6683,17 @@
       <c r="D19" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="22" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="24" t="s">
         <v>336</v>
       </c>
     </row>
@@ -6671,125 +6710,179 @@
       <c r="D20" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="22" t="s">
+      <c r="H20" s="20"/>
+      <c r="I20" s="24" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" spans="1:9">
+    <row r="21" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A21" t="s">
         <v>83</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E21" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="E21" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="18" t="s">
         <v>347</v>
       </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1" spans="1:9">
+      <c r="H21" s="20"/>
+      <c r="I21" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A22" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>330</v>
+      <c r="B22" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="22" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1" spans="1:9">
+    </row>
+    <row r="23" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
       <c r="A23" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>337</v>
+      <c r="B23" s="10" t="s">
+        <v>352</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E24" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F24" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G24" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="22" t="s">
+      <c r="H24" s="20"/>
+      <c r="I24" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A24" s="10" t="s">
+    <row r="25" customFormat="1" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C25" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A26" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E26" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F26" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="22" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="24" t="s">
         <v>100</v>
       </c>
     </row>
@@ -6824,38 +6917,38 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">TEXT(NOW(),"yyyy-mm-dd_HH-MM")</f>
-        <v>2024-04-11 11-14</v>
+        <v>2024-04-17 11-59</v>
       </c>
       <c r="D2" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
